--- a/Producto/Web/Casos de prueba/8.xlsx
+++ b/Producto/Web/Casos de prueba/8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -79,21 +79,12 @@
     <t>Presiono el boton buscar</t>
   </si>
   <si>
-    <t>Hay playas de estacionamiento cargadas en la Base de Datos para la ciudad &lt;Ciudad1&gt;</t>
-  </si>
-  <si>
     <t>ingreso a la pagina principal.</t>
   </si>
   <si>
-    <t>Ingreso &lt;Ciudad1&gt; en el campo nombre de ciudad</t>
-  </si>
-  <si>
     <t>Leonel Romero [autor]</t>
   </si>
   <si>
-    <t>Se carga la pagina BuscarPlayas, con todas las playas de &lt;Ciudad1&gt; disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -103,22 +94,31 @@
     <t>Consultar todas las playas de estacionamiento de una ciudad seleccionada, cercanas a una direccion.</t>
   </si>
   <si>
-    <t>Ingreso &lt;Numero1&gt; en el campo numero</t>
-  </si>
-  <si>
     <t>Se hace zoom el mapa y se centra en la direccion ingresada</t>
   </si>
   <si>
-    <t>&lt;Numero1&gt; es una numeracion valida para &lt;Calle1&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Calle1&gt; es una direccion valida para la ciudad &lt;Ciudad1&gt;</t>
-  </si>
-  <si>
-    <t>Ingreso &lt;Calle1&gt; en el campo direccion</t>
-  </si>
-  <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Hay playas de estacionamiento cargadas en la Base de Datos para la ciudad "Córdoba"</t>
+  </si>
+  <si>
+    <t>"Colon" es una direccion valida para la ciudad "Córdoba"</t>
+  </si>
+  <si>
+    <t>"9" es una numeracion valida para la calle "Colon"</t>
+  </si>
+  <si>
+    <t>Ingreso "Córrdoba" en el campo nombre de ciudad</t>
+  </si>
+  <si>
+    <t>Se carga la pagina BuscarPlayas, con todas las playas de "Córdoba" disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
+  </si>
+  <si>
+    <t>Ingreso "Colon" en el campo direccion</t>
+  </si>
+  <si>
+    <t>Ingreso "9" en el campo numero</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" thickBot="1">
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39" thickBot="1">
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.25" thickBot="1">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1">
@@ -678,7 +678,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -817,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>18</v>

--- a/Producto/Web/Casos de prueba/8.xlsx
+++ b/Producto/Web/Casos de prueba/8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -103,22 +103,16 @@
     <t>Hay playas de estacionamiento cargadas en la Base de Datos para la ciudad "Córdoba"</t>
   </si>
   <si>
-    <t>"Colon" es una direccion valida para la ciudad "Córdoba"</t>
-  </si>
-  <si>
-    <t>"9" es una numeracion valida para la calle "Colon"</t>
-  </si>
-  <si>
-    <t>Ingreso "Córrdoba" en el campo nombre de ciudad</t>
-  </si>
-  <si>
     <t>Se carga la pagina BuscarPlayas, con todas las playas de "Córdoba" disponibles en un mapa. Se carga la informacion de las playas en la grilla de playas debajo del mapa.</t>
   </si>
   <si>
-    <t>Ingreso "Colon" en el campo direccion</t>
-  </si>
-  <si>
     <t>Ingreso "9" en el campo numero</t>
+  </si>
+  <si>
+    <t>Ingreso "Córdoba" en el campo nombre de ciudad</t>
+  </si>
+  <si>
+    <t>Ingreso "Colon" en el campo calle</t>
   </si>
 </sst>
 </file>
@@ -675,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -704,22 +698,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +713,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -787,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -796,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -805,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8"/>
     </row>
